--- a/Win32/Binaries/Table/active.xlsx
+++ b/Win32/Binaries/Table/active.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>active</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,14 +59,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,1,100;1,2,103</t>
-  </si>
-  <si>
-    <t>1,1,100;1,2,101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,100;1,2,104</t>
+    <t>12,1001,1;12,2001,1;12,3001,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,4001,1;12,5001,1;12,6001,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,5000;1,6,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,10000;1,2,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -418,12 +424,12 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -456,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -467,7 +473,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -478,7 +484,7 @@
         <v>80</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -489,7 +495,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
